--- a/qnaire_missing_values.xlsx
+++ b/qnaire_missing_values.xlsx
@@ -389,7 +389,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -479,7 +479,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A26" si="0">ROW(A2)</f>
+        <f t="shared" ref="A3:A16" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -815,20 +815,8 @@
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
       <c r="H12">
         <v>1</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
       </c>
       <c r="J12">
         <v>3</v>
@@ -893,9 +881,6 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14">
-        <v>34</v>
-      </c>
       <c r="D14">
         <v>4</v>
       </c>
@@ -976,9 +961,6 @@
       </c>
       <c r="I16">
         <v>3</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
       </c>
       <c r="K16">
         <v>1</v>
